--- a/lr_peepeepoopoo_3.1/text/Книга1.xlsx
+++ b/lr_peepeepoopoo_3.1/text/Книга1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurie\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurie\OneDrive\Документы\GitHub\silver-funicular\lr_peepeepoopoo_3.1\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E37CD3C-A3B9-4513-B39C-4D0A435F3E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E578DA-96B8-4C4D-BA79-6808A0EC886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99AB6F88-5BA6-43B5-8A99-982BE04D4BBF}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1376,7 +1372,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4803149606299214E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -12801,8 +12807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A9C9FA-D05E-4901-806C-13D272E657A2}">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F68" workbookViewId="0">
-      <selection activeCell="AC91" sqref="AC91"/>
+    <sheetView tabSelected="1" topLeftCell="F74" workbookViewId="0">
+      <selection activeCell="AB96" sqref="AB96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lr_peepeepoopoo_3.1/text/Книга1.xlsx
+++ b/lr_peepeepoopoo_3.1/text/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurie\OneDrive\Документы\GitHub\silver-funicular\lr_peepeepoopoo_3.1\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E578DA-96B8-4C4D-BA79-6808A0EC886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B57115-4E23-442F-B21D-A1748CE4230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99AB6F88-5BA6-43B5-8A99-982BE04D4BBF}"/>
   </bookViews>
@@ -31,6 +31,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>возр</t>
+  </si>
+  <si>
+    <t>уб</t>
+  </si>
+  <si>
+    <t>случ</t>
+  </si>
+  <si>
+    <t>пил</t>
+  </si>
+  <si>
+    <t>син</t>
+  </si>
+  <si>
+    <t>ступ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,67 +710,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Пилообразный</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> массив</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1001,67 +964,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Синусоидный</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> массив</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1109,16 +1012,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,62 +1218,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Ступенчатый массив</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1428,16 +1276,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>294</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>576</c:v>
+                  <c:v>987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,6 +1413,1560 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="545702448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8025371828521428E-2"/>
+          <c:y val="2.7777777777777776E-2"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$S$106:$S$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$106:$R$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-658A-4A68-8FED-63D41C85302B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="601915064"/>
+        <c:axId val="601911456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="601915064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601911456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="601911456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601915064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$S$106:$S$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$120:$R$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3FF-4968-A830-38793A76735A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="647932704"/>
+        <c:axId val="647930080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="647932704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647930080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647930080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647932704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7469816272965873E-2"/>
+          <c:y val="4.1666666666666664E-2"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$S$106:$S$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$133:$R$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C581-4E39-AB18-068C954523E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="647932704"/>
+        <c:axId val="647930080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="647932704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647930080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647930080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647932704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$S$106:$S$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$146:$R$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8316-48F7-8283-92D07FA8EF9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="647932704"/>
+        <c:axId val="647930080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="647932704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647930080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647930080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647932704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8025371828521428E-2"/>
+          <c:y val="6.0185185185185182E-2"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$S$106:$S$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$157:$R$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C7A-4D08-BA01-96245DE95A2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="647932704"/>
+        <c:axId val="647930080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="647932704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647930080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647930080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647932704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$S$106:$S$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$170:$R$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA7D-4238-A06C-121FA0BDD547}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="647932704"/>
+        <c:axId val="647930080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="647932704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647930080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647930080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647932704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4549,67 +5951,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Возрастающий</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> массив</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4657,16 +5999,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>415</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>835</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4863,67 +6205,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Убывающий</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> массив</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4971,16 +6253,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>421</c:v>
+                  <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>835</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5177,67 +6459,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Случайный</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> массив</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5285,16 +6507,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>141</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>289</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>713</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1462</c:v>
+                  <c:v>2657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5598,6 +6820,246 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7480,6 +8942,3024 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12505,6 +16985,230 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D4AC09-3A8F-4A9E-95F1-D8DA5059EB20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C888D8-0D6A-46D4-A2FD-5693F2F8E2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Диаграмма 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994F4747-5177-4822-84BB-BDC92DB5C16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Диаграмма 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A58251A-243A-4E5E-B470-A9BF24C9A984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Диаграмма 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9689CBC8-2AFB-4310-A6BB-D7FD472BC765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Диаграмма 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93CCF1E-F6CA-4D38-A55E-45B94A6CD045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12805,10 +17509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A9C9FA-D05E-4901-806C-13D272E657A2}">
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F74" workbookViewId="0">
-      <selection activeCell="AB96" sqref="AB96"/>
+    <sheetView tabSelected="1" topLeftCell="F149" workbookViewId="0">
+      <selection activeCell="R179" sqref="R179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12853,7 +17557,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="S2">
         <v>500000</v>
@@ -12879,7 +17583,7 @@
         <v>-2</v>
       </c>
       <c r="R3">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="S3">
         <v>1000000</v>
@@ -12905,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>415</v>
+        <v>768</v>
       </c>
       <c r="S4">
         <v>2500000</v>
@@ -12931,7 +17635,7 @@
         <v>2</v>
       </c>
       <c r="R5">
-        <v>835</v>
+        <v>1507</v>
       </c>
       <c r="S5">
         <v>5000000</v>
@@ -13257,7 +17961,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -13280,7 +17984,7 @@
         <v>-3</v>
       </c>
       <c r="R22">
-        <v>167</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -13303,7 +18007,7 @@
         <v>-1</v>
       </c>
       <c r="R23">
-        <v>421</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -13326,7 +18030,7 @@
         <v>3</v>
       </c>
       <c r="R24">
-        <v>835</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -13629,7 +18333,7 @@
         <v>37.333300000000001</v>
       </c>
       <c r="R39">
-        <v>141</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -13652,7 +18356,7 @@
         <v>35.333300000000001</v>
       </c>
       <c r="R40">
-        <v>289</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -13675,7 +18379,7 @@
         <v>35.333300000000001</v>
       </c>
       <c r="R41">
-        <v>713</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -13698,7 +18402,7 @@
         <v>36.333300000000001</v>
       </c>
       <c r="R42">
-        <v>1462</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -14313,7 +19017,7 @@
         <v>68.666700000000006</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -14336,7 +19040,7 @@
         <v>65.666700000000006</v>
       </c>
       <c r="R73">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -14359,7 +19063,7 @@
         <v>66.666700000000006</v>
       </c>
       <c r="R74">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -14382,7 +19086,7 @@
         <v>64.666700000000006</v>
       </c>
       <c r="R75">
-        <v>104</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -14625,7 +19329,7 @@
         <v>97</v>
       </c>
       <c r="R87">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -14648,7 +19352,7 @@
         <v>98</v>
       </c>
       <c r="R88">
-        <v>117</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -14671,7 +19375,7 @@
         <v>99</v>
       </c>
       <c r="R89">
-        <v>294</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -14694,7 +19398,7 @@
         <v>99</v>
       </c>
       <c r="R90">
-        <v>576</v>
+        <v>987</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -14817,7 +19521,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>24323</v>
       </c>
@@ -14837,7 +19541,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>24323</v>
       </c>
@@ -14857,7 +19561,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>24435</v>
       </c>
@@ -14877,7 +19581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>24514</v>
       </c>
@@ -14895,6 +19599,156 @@
       </c>
       <c r="F100">
         <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P106" t="s">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>97</v>
+      </c>
+      <c r="S106">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>228</v>
+      </c>
+      <c r="S107">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <v>574</v>
+      </c>
+      <c r="S108">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <v>1038</v>
+      </c>
+      <c r="S109">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="120" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P120" t="s">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="123" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="133" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P133" t="s">
+        <v>2</v>
+      </c>
+      <c r="R133">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="135" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="136" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="146" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P146" t="s">
+        <v>3</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P157" t="s">
+        <v>4</v>
+      </c>
+      <c r="R157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P170" t="s">
+        <v>5</v>
+      </c>
+      <c r="R170">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="173" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
